--- a/data/trans_orig/P6905-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E058A7A3-CE5A-4094-8990-1C9B3ADB7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AA06D9-E51B-4F0A-9CF6-182FE8ADF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2FDAF62-F897-491C-9769-6F8253741CE7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA01ABCC-A894-4E92-9CD7-1C25C72257DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>22,09%</t>
@@ -89,16 +89,16 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>38,99%</t>
+    <t>39,04%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>72,44%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>61,01%</t>
+    <t>60,96%</t>
   </si>
   <si>
     <t>89,27%</t>
@@ -125,10 +125,10 @@
     <t>73,82%</t>
   </si>
   <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,757 +197,763 @@
     <t>35,93%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,66%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E316661-C755-48FF-9D38-4674853E2EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359D000-A0E5-47F9-B1D8-D6AADCD5FE77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1975,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>219</v>
@@ -1978,13 +1984,13 @@
         <v>232061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +2005,13 @@
         <v>330413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -2014,13 +2020,13 @@
         <v>129953</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>446</v>
@@ -2029,13 +2035,13 @@
         <v>460366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F09120-F60B-4043-A14C-EA88944B07CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61EABB8-73B9-4A9B-951C-5001A0D11443}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2240,13 @@
         <v>9556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2249,13 +2255,13 @@
         <v>11080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -2264,13 +2270,13 @@
         <v>20636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2291,13 @@
         <v>47120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2300,13 +2306,13 @@
         <v>26855</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2315,13 +2321,13 @@
         <v>73974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2395,13 @@
         <v>63538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -2404,13 +2410,13 @@
         <v>55478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -2419,13 +2425,13 @@
         <v>119016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2446,13 @@
         <v>158086</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -2455,13 +2461,13 @@
         <v>75101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2470,13 +2476,13 @@
         <v>233187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2550,13 @@
         <v>11451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2559,13 +2565,13 @@
         <v>21491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2574,13 +2580,13 @@
         <v>32942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2601,13 @@
         <v>34638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2610,13 +2616,13 @@
         <v>24830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2625,13 +2631,13 @@
         <v>59468</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2705,13 @@
         <v>84545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -2714,13 +2720,13 @@
         <v>88049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -2729,13 +2735,13 @@
         <v>172594</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,16 +2753,16 @@
         <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>239844</v>
+        <v>239843</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -2765,13 +2771,13 @@
         <v>126786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -2780,13 +2786,13 @@
         <v>366630</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2804,7 @@
         <v>311</v>
       </c>
       <c r="D15" s="7">
-        <v>324389</v>
+        <v>324388</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2253E02A-DC3E-4BC0-88BE-8C96237F1EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E255221-A7AC-42BD-A470-33FF2F792267}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2991,13 @@
         <v>11666</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3000,13 +3006,13 @@
         <v>7998</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3015,13 +3021,13 @@
         <v>19664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3042,13 @@
         <v>43915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3051,13 +3057,13 @@
         <v>10026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3066,13 +3072,13 @@
         <v>53941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3146,13 @@
         <v>60149</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3155,13 +3161,13 @@
         <v>54688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3170,13 +3176,13 @@
         <v>114837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3197,10 @@
         <v>169233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>189</v>
@@ -3593,7 +3599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AE04D1-A83F-49DF-8066-110B47087F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F8C19A-9BE6-488B-AECB-F4FF73087E76}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4231,13 +4237,13 @@
         <v>204379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>272669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -4267,13 +4273,13 @@
         <v>235650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>585</v>
@@ -4282,13 +4288,13 @@
         <v>508319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43AA06D9-E51B-4F0A-9CF6-182FE8ADF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E25BA9D-62A2-4086-8170-6D5CB9E928B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA01ABCC-A894-4E92-9CD7-1C25C72257DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4331D80-655C-4A6D-B13B-9575C51B7CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,44%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>35,93%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,70 +311,70 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>70,79%</t>
   </si>
   <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>33,42%</t>
+    <t>33,55%</t>
   </si>
   <si>
     <t>52,1%</t>
@@ -383,19 +383,19 @@
     <t>33,79%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>57,51%</t>
@@ -404,337 +404,325 @@
     <t>47,9%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>66,45%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>73,94%</t>
   </si>
   <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>55,62%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>20,33%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>79,67%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>56,1%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>64,57%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>72,6%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>34,7%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>73,15%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>65,3%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
@@ -752,9 +740,6 @@
     <t>47,27%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
     <t>78,71%</t>
   </si>
   <si>
@@ -782,9 +767,6 @@
     <t>21,29%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
     <t>73,46%</t>
   </si>
   <si>
@@ -818,9 +800,6 @@
     <t>21,3%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
     <t>79,53%</t>
   </si>
   <si>
@@ -842,9 +821,6 @@
     <t>74,82%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
     <t>78,7%</t>
   </si>
   <si>
@@ -902,9 +878,6 @@
     <t>67,87%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
     <t>17,88%</t>
   </si>
   <si>
@@ -927,9 +900,6 @@
   </si>
   <si>
     <t>32,32%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
   </si>
   <si>
     <t>71,8%</t>
@@ -1365,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359D000-A0E5-47F9-B1D8-D6AADCD5FE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786F7F7-73B7-4660-85B4-765FD8A14186}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61EABB8-73B9-4A9B-951C-5001A0D11443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33B498-C4C2-4659-A63D-6E3AFE28B056}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E255221-A7AC-42BD-A470-33FF2F792267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C5D12-6F95-4F28-A710-014D7500A1C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3122,7 @@
         <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3161,13 +3131,13 @@
         <v>54688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3176,13 +3146,13 @@
         <v>114837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3167,13 @@
         <v>169233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -3212,13 +3182,13 @@
         <v>69877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -3227,13 +3197,13 @@
         <v>239110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3271,13 @@
         <v>21739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3316,13 +3286,13 @@
         <v>26887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3331,13 +3301,13 @@
         <v>48626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3322,13 @@
         <v>41789</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3367,13 +3337,13 @@
         <v>46821</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3382,13 +3352,13 @@
         <v>88610</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3426,13 @@
         <v>93553</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3471,13 +3441,13 @@
         <v>89574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -3486,13 +3456,13 @@
         <v>183127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3477,13 @@
         <v>254938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -3522,13 +3492,13 @@
         <v>126724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -3537,13 +3507,13 @@
         <v>381661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F8C19A-9BE6-488B-AECB-F4FF73087E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7524EE-D898-4764-80E6-D73000DAEBA1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3712,13 @@
         <v>2078</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3757,13 +3727,13 @@
         <v>13705</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3772,13 +3742,13 @@
         <v>15783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3763,13 @@
         <v>28402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3808,13 +3778,13 @@
         <v>15289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3823,13 +3793,13 @@
         <v>43691</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3867,13 @@
         <v>51048</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -3912,13 +3882,13 @@
         <v>70654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3927,13 +3897,13 @@
         <v>121702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3918,13 @@
         <v>198302</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>216</v>
@@ -3963,13 +3933,13 @@
         <v>163307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>405</v>
@@ -3978,13 +3948,13 @@
         <v>361609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4022,13 @@
         <v>25851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4067,13 +4037,13 @@
         <v>41043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4082,13 +4052,13 @@
         <v>66894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4073,13 @@
         <v>45966</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -4118,13 +4088,13 @@
         <v>57053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -4133,13 +4103,13 @@
         <v>103019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4177,13 @@
         <v>78977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -4222,13 +4192,13 @@
         <v>125402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -4237,13 +4207,13 @@
         <v>204379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4228,13 @@
         <v>272669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -4273,13 +4243,13 @@
         <v>235650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>585</v>
@@ -4288,13 +4258,13 @@
         <v>508319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6905-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E25BA9D-62A2-4086-8170-6D5CB9E928B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95AD4546-2B18-4B63-87DB-55CF94AD8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4331D80-655C-4A6D-B13B-9575C51B7CE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B11A7C8-5060-48CC-A08B-A80FB5B3B04F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,44%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,103 @@
     <t>35,93%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>34,12%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>69,96%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>65,88%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,619 +305,649 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>70,79%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>64,57%</t>
   </si>
   <si>
-    <t>72,6%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>77,54%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786F7F7-73B7-4660-85B4-765FD8A14186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5ABDD5-8596-4052-80A5-3F323B2F45E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1969,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>219</v>
@@ -1954,13 +1978,13 @@
         <v>232061</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1999,13 @@
         <v>330413</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -1990,13 +2014,13 @@
         <v>129953</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>446</v>
@@ -2005,13 +2029,13 @@
         <v>460366</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33B498-C4C2-4659-A63D-6E3AFE28B056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973364D7-C631-4A6F-8D2C-E36FBAD2E44E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2234,13 @@
         <v>9556</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2225,13 +2249,13 @@
         <v>11080</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -2240,13 +2264,13 @@
         <v>20636</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2285,13 @@
         <v>47120</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2276,13 +2300,13 @@
         <v>26855</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2291,13 +2315,13 @@
         <v>73974</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2389,13 @@
         <v>63538</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -2380,13 +2404,13 @@
         <v>55478</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -2395,13 +2419,13 @@
         <v>119016</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2440,13 @@
         <v>158086</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -2431,13 +2455,13 @@
         <v>75101</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2446,13 +2470,13 @@
         <v>233187</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2544,13 @@
         <v>11451</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2535,13 +2559,13 @@
         <v>21491</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2550,13 +2574,13 @@
         <v>32942</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2595,13 @@
         <v>34638</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2586,13 +2610,13 @@
         <v>24830</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2601,13 +2625,13 @@
         <v>59468</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2699,13 @@
         <v>84545</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -2690,13 +2714,13 @@
         <v>88049</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -2705,13 +2729,13 @@
         <v>172594</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,16 +2747,16 @@
         <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>239843</v>
+        <v>239844</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -2741,13 +2765,13 @@
         <v>126786</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -2756,13 +2780,13 @@
         <v>366630</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2798,7 @@
         <v>311</v>
       </c>
       <c r="D15" s="7">
-        <v>324388</v>
+        <v>324389</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C5D12-6F95-4F28-A710-014D7500A1C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52CCD8-5D63-4D8F-9CD2-855385EE32A1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2961,13 +2985,13 @@
         <v>11666</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2976,13 +3000,13 @@
         <v>7998</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -2991,13 +3015,13 @@
         <v>19664</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3036,13 @@
         <v>43915</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3027,13 +3051,13 @@
         <v>10026</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -3042,13 +3066,13 @@
         <v>53941</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3140,13 @@
         <v>60149</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3131,13 +3155,13 @@
         <v>54688</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -3146,13 +3170,13 @@
         <v>114837</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3191,13 @@
         <v>169233</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -3182,13 +3206,13 @@
         <v>69877</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -3197,13 +3221,13 @@
         <v>239110</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3295,13 @@
         <v>21739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3286,13 +3310,13 @@
         <v>26887</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3301,13 +3325,13 @@
         <v>48626</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3346,13 @@
         <v>41789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3337,13 +3361,13 @@
         <v>46821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -3352,13 +3376,13 @@
         <v>88610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3450,13 @@
         <v>93553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3441,13 +3465,13 @@
         <v>89574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -3456,13 +3480,13 @@
         <v>183127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3501,13 @@
         <v>254938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -3492,13 +3516,13 @@
         <v>126724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -3507,13 +3531,13 @@
         <v>381661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7524EE-D898-4764-80E6-D73000DAEBA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DBA136-5756-4C21-9875-B9A812A1F668}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3736,13 @@
         <v>2078</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3727,13 +3751,13 @@
         <v>13705</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3742,13 +3766,13 @@
         <v>15783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3787,13 @@
         <v>28402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3778,13 +3802,13 @@
         <v>15289</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3793,13 +3817,13 @@
         <v>43691</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3891,13 @@
         <v>51048</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -3882,13 +3906,13 @@
         <v>70654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3897,13 +3921,13 @@
         <v>121702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3942,13 @@
         <v>198302</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>216</v>
@@ -3933,13 +3957,13 @@
         <v>163307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>405</v>
@@ -3948,13 +3972,13 @@
         <v>361609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4046,13 @@
         <v>25851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4037,13 +4061,13 @@
         <v>41043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4052,13 +4076,13 @@
         <v>66894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4097,13 @@
         <v>45966</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -4088,13 +4112,13 @@
         <v>57053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -4103,13 +4127,13 @@
         <v>103019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4201,13 @@
         <v>78977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -4192,13 +4216,13 @@
         <v>125402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -4207,13 +4231,13 @@
         <v>204379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4252,13 @@
         <v>272669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -4243,13 +4267,13 @@
         <v>235650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>585</v>
@@ -4258,13 +4282,13 @@
         <v>508319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95AD4546-2B18-4B63-87DB-55CF94AD8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74BD0DA-BDB5-4519-8221-D185BA06A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B11A7C8-5060-48CC-A08B-A80FB5B3B04F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9AEFB7D-EF24-48DA-BF6C-E58728BCA395}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -740,214 +740,220 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5ABDD5-8596-4052-80A5-3F323B2F45E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C21424-CAFF-495A-AB64-D58D68BBE623}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973364D7-C631-4A6F-8D2C-E36FBAD2E44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE27CCE0-070A-4E95-94ED-81E78336BCC0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2747,7 +2753,7 @@
         <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>239844</v>
+        <v>239843</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>150</v>
@@ -2798,7 +2804,7 @@
         <v>311</v>
       </c>
       <c r="D15" s="7">
-        <v>324389</v>
+        <v>324388</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52CCD8-5D63-4D8F-9CD2-855385EE32A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B7566B-2CB1-4F5C-BD2F-B54652158B6A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DBA136-5756-4C21-9875-B9A812A1F668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14953F2-F12D-473C-A6AF-65B62B8A2B44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2078</v>
+        <v>2778</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3748,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>13705</v>
+        <v>11198</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3763,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>15783</v>
+        <v>13976</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3784,7 +3790,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>28402</v>
+        <v>26436</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3799,7 +3805,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>15289</v>
+        <v>13788</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3814,7 +3820,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>43691</v>
+        <v>40224</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3835,7 +3841,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3871,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3894,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>51048</v>
+        <v>49738</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3903,7 +3909,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>70654</v>
+        <v>65161</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3918,7 +3924,7 @@
         <v>141</v>
       </c>
       <c r="N7" s="7">
-        <v>121702</v>
+        <v>114899</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3939,7 +3945,7 @@
         <v>189</v>
       </c>
       <c r="D8" s="7">
-        <v>198302</v>
+        <v>189842</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3954,7 +3960,7 @@
         <v>216</v>
       </c>
       <c r="I8" s="7">
-        <v>163307</v>
+        <v>173207</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3969,7 +3975,7 @@
         <v>405</v>
       </c>
       <c r="N8" s="7">
-        <v>361609</v>
+        <v>363049</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3990,7 +3996,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4011,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4026,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4049,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>25851</v>
+        <v>25033</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4058,7 +4064,7 @@
         <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>41043</v>
+        <v>38050</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4073,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>66894</v>
+        <v>63083</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4094,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>45966</v>
+        <v>44493</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4109,7 +4115,7 @@
         <v>82</v>
       </c>
       <c r="I11" s="7">
-        <v>57053</v>
+        <v>52645</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4124,7 +4130,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="7">
-        <v>103019</v>
+        <v>97138</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4145,7 +4151,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4166,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4181,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4204,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>78977</v>
+        <v>77548</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4213,7 +4219,7 @@
         <v>151</v>
       </c>
       <c r="I13" s="7">
-        <v>125402</v>
+        <v>114409</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4228,16 +4234,16 @@
         <v>225</v>
       </c>
       <c r="N13" s="7">
-        <v>204379</v>
+        <v>191958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,46 +4255,46 @@
         <v>263</v>
       </c>
       <c r="D14" s="7">
-        <v>272669</v>
+        <v>260772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
       </c>
       <c r="I14" s="7">
-        <v>235650</v>
+        <v>239640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>585</v>
       </c>
       <c r="N14" s="7">
-        <v>508319</v>
+        <v>500411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4306,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4321,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4336,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
